--- a/biology/Zoologie/Gaucho_à_bec_noir/Gaucho_à_bec_noir.xlsx
+++ b/biology/Zoologie/Gaucho_à_bec_noir/Gaucho_à_bec_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaucho_%C3%A0_bec_noir</t>
+          <t>Gaucho_à_bec_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriornis montanus
-Le Gaucho à bec noir (Agriornis montanus) est une espèce de passereau placée dans la famille des Tyrannidae[1].
+Le Gaucho à bec noir (Agriornis montanus) est une espèce de passereau placée dans la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaucho_%C3%A0_bec_noir</t>
+          <t>Gaucho_à_bec_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est représenté par 6 sous-espèces :
 Agriornis montanus montanus (d'Orbigny &amp; Lafresnaye, 1837) : Andes de l'Est et du Sud de la Bolivie et du Nord-Ouest de l'Argentine (au Sud de la province de La Rioja) ;
@@ -520,7 +534,7 @@
 Agriornis montanus solitarius Sclater, PL, 1859 : Andes de Colombie et d'Équateur ;
 Agriornis montanus insolens Sclater, PL &amp; Salvin, 1869 : Andes du Pérou ;
 Agriornis montanus intermedius Hellmayr, 1927 : Andes, de l'Ouest de la Bolivie (départements de La Paz et d'Oruro) au Nord du Chili (région de Tarapacá) ;
-Agriornis montanus maritimus (d'Orbigny &amp; Lafresnaye, 1837) : centre et centre septentrional du Chili, centre occidental et centre de l'Argentine (Sud de la province de Buenos Aires et plateau de Somuncará). Cette sous-espèce inclut Agriornis montanus leucorus[1],[3].
+Agriornis montanus maritimus (d'Orbigny &amp; Lafresnaye, 1837) : centre et centre septentrional du Chili, centre occidental et centre de l'Argentine (Sud de la province de Buenos Aires et plateau de Somuncará). Cette sous-espèce inclut Agriornis montanus leucorus,.
 			Agriornis montanus insolens, par Joseph Smit (1888)
 			Agriornis montanus solitarius, par Joseph Smit (1888)
 </t>
